--- a/datasets/import_sample.xlsx
+++ b/datasets/import_sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>31/12/1978</t>
   </si>
@@ -56,9 +56,6 @@
     <t>2/1/1982</t>
   </si>
   <si>
-    <t>20/07/1973</t>
-  </si>
-  <si>
     <t>ID106</t>
   </si>
   <si>
@@ -77,25 +74,55 @@
     <t>weight</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>date_string</t>
-  </si>
-  <si>
-    <t>date_uk</t>
-  </si>
-  <si>
-    <t>date my</t>
-  </si>
-  <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>date_last</t>
+  </si>
+  <si>
+    <t>date first</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>ID109</t>
+  </si>
+  <si>
+    <t>ID110</t>
+  </si>
+  <si>
+    <t>26/7/1973</t>
+  </si>
+  <si>
+    <t>21/8/1985</t>
+  </si>
+  <si>
+    <t>9/8/1983</t>
+  </si>
+  <si>
+    <t>date_birth</t>
   </si>
 </sst>
 </file>
@@ -141,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -163,6 +190,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -479,247 +513,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4">
+        <v>173</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>26865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="11">
+        <v>42968</v>
+      </c>
+      <c r="J2" s="2">
+        <v>41475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43.12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>164</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
-        <v>29441</v>
-      </c>
-      <c r="H3" s="2">
-        <v>29441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>121</v>
+      </c>
+      <c r="I3" s="11">
+        <v>42826</v>
+      </c>
+      <c r="J3" s="2">
+        <v>41494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4">
-        <v>23.123000000000001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43.12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>178</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>28855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>152</v>
+      </c>
+      <c r="I4" s="11">
+        <v>42369</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4">
-        <v>54.123399999999997</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>38.122999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>182</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <v>35442</v>
-      </c>
-      <c r="H5" s="2">
-        <v>35442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>133</v>
+      </c>
+      <c r="I5" s="11">
+        <v>42675</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>54.123399999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>159</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>143</v>
+      </c>
+      <c r="I6" s="11">
+        <v>42493</v>
+      </c>
+      <c r="J6" s="2">
+        <v>41075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
         <v>34.123449999999998</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>29953</v>
-      </c>
-      <c r="H6" s="2">
-        <v>29953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1">
-        <v>29953</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>166</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4">
+        <v>155</v>
+      </c>
+      <c r="I7" s="11">
+        <v>42335</v>
+      </c>
+      <c r="J7" s="2">
+        <v>41392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>49.123455999999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>153</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
+        <v>117</v>
+      </c>
+      <c r="I8" s="11">
+        <v>41882</v>
+      </c>
+      <c r="J8" s="2">
+        <v>41516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F9" s="4">
+        <v>151</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4">
+        <v>135</v>
+      </c>
+      <c r="I9" s="11">
+        <v>42036</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>52.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>169</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4">
+        <v>128</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4">
         <v>88.8</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F11" s="4">
+        <v>171</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="4">
+        <v>141</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/import_sample.xlsx
+++ b/datasets/import_sample.xlsx
@@ -47,9 +47,6 @@
     <t>1/7/1973</t>
   </si>
   <si>
-    <t>8/8/1980</t>
-  </si>
-  <si>
     <t>12/1/1997</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>date_birth</t>
+  </si>
+  <si>
+    <t>28/2/1980</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,28 +537,28 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>35</v>
@@ -587,10 +587,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="11">
-        <v>42968</v>
+        <v>42429</v>
       </c>
       <c r="J2" s="2">
-        <v>41475</v>
+        <v>41486</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>37.1</v>
@@ -613,7 +613,7 @@
         <v>164</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4">
         <v>121</v>
@@ -622,7 +622,7 @@
         <v>42826</v>
       </c>
       <c r="J3" s="2">
-        <v>41494</v>
+        <v>41517</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>43.12</v>
@@ -651,7 +651,7 @@
         <v>152</v>
       </c>
       <c r="I4" s="11">
-        <v>42369</v>
+        <v>42308</v>
       </c>
       <c r="J4" s="2">
         <v>42004</v>
@@ -665,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>38.122999999999998</v>
@@ -677,7 +677,7 @@
         <v>182</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>133</v>
@@ -686,7 +686,7 @@
         <v>42675</v>
       </c>
       <c r="J5" s="2">
-        <v>42016</v>
+        <v>42063</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4">
         <v>54.123399999999997</v>
@@ -709,13 +709,13 @@
         <v>159</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4">
         <v>143</v>
       </c>
       <c r="I6" s="11">
-        <v>42493</v>
+        <v>42643</v>
       </c>
       <c r="J6" s="2">
         <v>41075</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4">
         <v>34.123449999999998</v>
@@ -738,7 +738,7 @@
         <v>166</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4">
         <v>155</v>
@@ -755,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4">
         <v>49.123455999999997</v>
@@ -770,16 +770,16 @@
         <v>153</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4">
         <v>117</v>
       </c>
       <c r="I8" s="11">
-        <v>41882</v>
+        <v>42825</v>
       </c>
       <c r="J8" s="2">
-        <v>41516</v>
+        <v>41699</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>75.099999999999994</v>
@@ -802,7 +802,7 @@
         <v>151</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4">
         <v>135</v>
@@ -817,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
         <v>52.1</v>
@@ -832,13 +832,13 @@
         <v>169</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4">
         <v>128</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -847,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4">
         <v>88.8</v>
@@ -862,13 +862,13 @@
         <v>171</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4">
         <v>141</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="8"/>
     </row>

--- a/datasets/import_sample.xlsx
+++ b/datasets/import_sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>31/12/1978</t>
   </si>
@@ -116,13 +116,28 @@
     <t>21/8/1985</t>
   </si>
   <si>
-    <t>9/8/1983</t>
-  </si>
-  <si>
     <t>date_birth</t>
   </si>
   <si>
     <t>28/2/1980</t>
+  </si>
+  <si>
+    <t>ID111</t>
+  </si>
+  <si>
+    <t>ID112</t>
+  </si>
+  <si>
+    <t>ID113</t>
+  </si>
+  <si>
+    <t>24/8/1982</t>
+  </si>
+  <si>
+    <t>9/8/1979</t>
+  </si>
+  <si>
+    <t>13/7/1975</t>
   </si>
 </sst>
 </file>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +544,8 @@
     <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -549,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -613,7 +628,7 @@
         <v>164</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4">
         <v>121</v>
@@ -722,6 +737,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -790,27 +808,29 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>75.099999999999994</v>
+        <v>50.2</v>
       </c>
       <c r="F9" s="4">
-        <v>151</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
+        <v>159</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I9" s="11">
-        <v>42036</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>42643</v>
+      </c>
+      <c r="J9" s="2">
+        <v>40709</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -820,27 +840,29 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4">
-        <v>52.1</v>
+        <v>59.1</v>
       </c>
       <c r="F10" s="4">
-        <v>169</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>166</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="4">
-        <v>128</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="I10" s="11">
+        <v>43040</v>
+      </c>
+      <c r="J10" s="2">
+        <v>41001</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -850,27 +872,119 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>163</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4">
+        <v>117</v>
+      </c>
+      <c r="I11" s="11">
+        <v>42441</v>
+      </c>
+      <c r="J11" s="2">
+        <v>41345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F12" s="4">
+        <v>170</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4">
+        <v>135</v>
+      </c>
+      <c r="I12" s="11">
+        <v>42036</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>52.1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>169</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4">
+        <v>128</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
         <v>88.8</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F14" s="4">
         <v>171</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H14" s="4">
         <v>141</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/import_sample.xlsx
+++ b/datasets/import_sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YKS-NIC\Dropbox\R\business_technical_analytics_r\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keh-soon.yong\Dropbox\R\business_technical_analytics_r\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13248" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="import_sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,10 +143,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -183,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -212,6 +213,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -531,24 +535,24 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="15.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="9" t="s">
@@ -576,7 +580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,11 +608,11 @@
       <c r="I2" s="11">
         <v>42429</v>
       </c>
-      <c r="J2" s="2">
-        <v>41486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="12">
+        <v>41486.59375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -636,11 +640,11 @@
       <c r="I3" s="11">
         <v>42826</v>
       </c>
-      <c r="J3" s="2">
-        <v>41517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="12">
+        <v>41517.225694444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -668,11 +672,11 @@
       <c r="I4" s="11">
         <v>42308</v>
       </c>
-      <c r="J4" s="2">
-        <v>42004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="12">
+        <v>42004.258217592593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -700,11 +704,11 @@
       <c r="I5" s="11">
         <v>42675</v>
       </c>
-      <c r="J5" s="2">
-        <v>42063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="12">
+        <v>42063.046006944445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -732,11 +736,11 @@
       <c r="I6" s="11">
         <v>42643</v>
       </c>
-      <c r="J6" s="2">
-        <v>41075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="12">
+        <v>41075.182893518519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -764,11 +768,11 @@
       <c r="I7" s="11">
         <v>42335</v>
       </c>
-      <c r="J7" s="2">
-        <v>41392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="12">
+        <v>41392.41265046296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -796,11 +800,11 @@
       <c r="I8" s="11">
         <v>42825</v>
       </c>
-      <c r="J8" s="2">
-        <v>41699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="12">
+        <v>41699.824444444443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -828,11 +832,11 @@
       <c r="I9" s="11">
         <v>42643</v>
       </c>
-      <c r="J9" s="2">
-        <v>40709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="12">
+        <v>40709.427372685182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -860,11 +864,11 @@
       <c r="I10" s="11">
         <v>43040</v>
       </c>
-      <c r="J10" s="2">
-        <v>41001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="12">
+        <v>41001.301099537035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -892,11 +896,11 @@
       <c r="I11" s="11">
         <v>42441</v>
       </c>
-      <c r="J11" s="2">
-        <v>41345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="12">
+        <v>41345.886597222219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -926,7 +930,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -956,7 +960,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
